--- a/src/main/resources/upload/room_1/what_1.xlsx
+++ b/src/main/resources/upload/room_1/what_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Data/Study/PhanTan/WEB/metting/src/main/resources/upload/room_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE3E8E4-F138-2448-A653-F28421BA5805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C719A7B-C553-594D-AD79-FD2D07C9E748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="440" windowWidth="24880" windowHeight="15020" xr2:uid="{CE82CFD4-B455-814E-9572-F618F598D35B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>alo</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>goodbye</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:30</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:38:30</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:35</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:45</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:39:21</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:40:13</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:42:21</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:43:11</t>
   </si>
 </sst>
 </file>
@@ -385,20 +412,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0123E69-9CCE-4B4C-8C4B-B3A2C002ECB8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -408,11 +439,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -422,17 +453,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upload/room_1/what_1.xlsx
+++ b/src/main/resources/upload/room_1/what_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Data/Study/PhanTan/WEB/metting/src/main/resources/upload/room_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE3E8E4-F138-2448-A653-F28421BA5805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7F5B2-1A6D-6B4F-B09A-CF758FDE481F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="440" windowWidth="24880" windowHeight="15020" xr2:uid="{CE82CFD4-B455-814E-9572-F618F598D35B}"/>
+    <workbookView xWindow="500" yWindow="440" windowWidth="25100" windowHeight="15560" xr2:uid="{BF88216E-650F-194E-ADC9-4143B18DCB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>alo</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>goodbye</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>29-11-2018 9:12:20</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:13:21</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:12:25</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:12:30</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:13:45</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:14:12</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:24</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:10</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:47</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:16:41</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:48</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:18:20</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:19:21</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:20:31</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:21:57</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:23:23</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:23:31</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:25:10</t>
+  </si>
+  <si>
+    <t>Ngày 29/11, Cơ quan Cảnh sát điều tra Bộ Công an (C03) đã thực hiện tống đạt các Quyết định và thi hành Lệnh bắt, khám xét đối với 04 bị can có liên quan đến vụ án</t>
+  </si>
+  <si>
+    <t>Căn cứ kết quả điều tra, tài liệu chứng cứ đã thu thập được, ngày 22/11, Cơ quan Cảnh sát điều tra Bộ Công an (CO3) ra Quyết định khởi tố vụ án hình sự về tội “Vi phạm q</t>
+  </si>
+  <si>
+    <t>BIDV; cùng ngày đã ra Quyết định khởi tố bị can, Lệnh khám xét đối với: Trần Bắc Hà, nguyên Chủ tịch Hội đồng Quản trị BIDV; Trần Lục Lang, nguyên Phó Tổng Giám đốc </t>
+  </si>
+  <si>
+    <t>Giám đốc BIDV Chi nhánh Hà Tĩnh; Lê Thị Vân Anh, nguyên Trưởng phòng khách hàng doanh nghiệp BIDV Chi nhánh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Các bị can trên bị khởi tố về tội “Vi phạm quy định về hoạt động ngân hàng, hoạt động khác liên quan đến hoạt động ngân hàng” quy định tại Điều 206 Bộ luật Hình sự năm 2015</t>
+  </si>
+  <si>
+    <t>Trần Lục Lang và Kiều Đình Hòa; Áp dụng biện pháp ngăn chặn cấm đi khỏi nơi cư trú đối với bị can Lê Thị Vân Anh</t>
+  </si>
+  <si>
+    <t>Sau khi Viện Kiểm sát nhân dân tối cao phê chuẩn các Quyết định và Lệnh tố tụng nêu trên ngày 29/11, Cơ quan Cảnh sát điều tra Bộ Công an</t>
+  </si>
+  <si>
+    <t>Xét nội dung, tính chất, mức độ, hậu quả vi phạm; căn cứ các quy định của Đảng về xử lý kỷ luật tổ chức đảng và đảng viên vi phạm</t>
+  </si>
+  <si>
+    <t>Ủy ban Kiểm tra Trung ương cũng quyết định cách chức tất cả các chức vụ trong Đảng đối với ông Đoàn Ánh Sáng, nguyên Ủy viên Ban Thường vụ Đảng ủy, Phó Tổng Giám đốc; cảnh cáo đối với ông Trần Lục Lang, Ủy viên Ban Thường vụ Đảng ủy, Phó Tổng Giám đốc BIDV.</t>
+  </si>
+  <si>
+    <t>Ngoài ra, Ủy ban Kiểm tra Trung ương còn yêu cầu Ban Thường vụ Đảng ủy Khối doanh nghiệp Trung ương thi hành kỷ luật đối với Ban Thường vụ Đảng ủy BIDV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,55 +473,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0123E69-9CCE-4B4C-8C4B-B3A2C002ECB8}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70345CFE-7B85-6A4F-B04D-8DCD603FC3C3}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
